--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant_warm_glowdonation</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.0349204718605695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00992667590086509</v>
+        <v>0.00992667590086499</v>
       </c>
       <c r="D2" t="n">
         <v>0.0599142678202739</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675876450707568</v>
+        <v>0.0675876450707565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333189915956316</v>
+        <v>0.0333189915956314</v>
       </c>
       <c r="D3" t="n">
         <v>0.101856298545882</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0391366742932621</v>
+        <v>0.0391366742932622</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0425780096914379</v>
+        <v>-0.0425780096914378</v>
       </c>
       <c r="D4" t="n">
         <v>0.120851358277962</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0947531111645337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0191488053021976</v>
+        <v>0.0191488053021977</v>
       </c>
       <c r="D5" t="n">
         <v>0.17035741702687</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0175119326214762</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0577422545335325</v>
+        <v>-0.0577422545335324</v>
       </c>
       <c r="D6" t="n">
         <v>0.0927661197764848</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.103853982432025</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00231517261693424</v>
+        <v>-0.00231517261693412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210023137480985</v>
+        <v>0.210023137480984</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456890966545246</v>
+        <v>0.0456890966545244</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0503919462261996</v>
+        <v>-0.0503919462261997</v>
       </c>
       <c r="D8" t="n">
         <v>0.141770139535249</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0834478409431802</v>
+        <v>0.0834478409431803</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000972477118733051</v>
+        <v>-0.000972477118733037</v>
       </c>
       <c r="D9" t="n">
         <v>0.167868159005094</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0490455807248947</v>
+        <v>0.0490455807248948</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0594078178313193</v>
+        <v>-0.0594078178313192</v>
       </c>
       <c r="D10" t="n">
         <v>0.157498979281109</v>
       </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00999789378044391</v>
+        <v>0.00999789378044368</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0429494641031228</v>
+        <v>-0.042949464103123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0629452516640106</v>
+        <v>0.0629452516640104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00864389755248719</v>
+        <v>0.00864389755248718</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0356713178771146</v>
+        <v>-0.0356713178771145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.052959112982089</v>
+        <v>0.0529591129820888</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0349204718605695</v>
+        <v>0.0345677812512015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00992667590086499</v>
+        <v>0.00955330665890697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0599142678202739</v>
+        <v>0.0595822558434961</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675876450707565</v>
+        <v>0.0675876450707569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333189915956314</v>
+        <v>0.0333189915956318</v>
       </c>
       <c r="D3" t="n">
         <v>0.101856298545882</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0947531111645337</v>
+        <v>0.0947531111645338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0191488053021977</v>
+        <v>0.0191488053021978</v>
       </c>
       <c r="D5" t="n">
         <v>0.17035741702687</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0175119326214762</v>
+        <v>0.0175119326214763</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0577422545335324</v>
+        <v>-0.0577422545335322</v>
       </c>
       <c r="D6" t="n">
         <v>0.0927661197764848</v>
@@ -504,7 +504,7 @@
         <v>0.103853982432025</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00231517261693412</v>
+        <v>-0.00231517261693417</v>
       </c>
       <c r="D7" t="n">
         <v>0.210023137480984</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456890966545244</v>
+        <v>0.0456890966545245</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0503919462261997</v>
+        <v>-0.0503919462261999</v>
       </c>
       <c r="D8" t="n">
         <v>0.141770139535249</v>
@@ -535,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0834478409431803</v>
+        <v>0.0834478409431804</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000972477118733037</v>
+        <v>-0.000972477118733064</v>
       </c>
       <c r="D9" t="n">
         <v>0.167868159005094</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00999789378044368</v>
+        <v>0.0101133748194984</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.042949464103123</v>
+        <v>-0.0428318682783555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0629452516640104</v>
+        <v>0.0630586179173524</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00864389755248718</v>
+        <v>0.00777904174477427</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0356713178771145</v>
+        <v>-0.0365787724650717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0529591129820888</v>
+        <v>0.0521368559546202</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0345677812512015</v>
+        <v>0.0345677812512016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00955330665890697</v>
+        <v>0.00955330665890686</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0595822558434961</v>
+        <v>0.0595822558434964</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675876450707569</v>
+        <v>0.0675876450707566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333189915956318</v>
+        <v>0.0333189915956314</v>
       </c>
       <c r="D3" t="n">
         <v>0.101856298545882</v>
@@ -453,7 +453,7 @@
         <v>0.0391366742932622</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0425780096914378</v>
+        <v>-0.042578009691438</v>
       </c>
       <c r="D4" t="n">
         <v>0.120851358277962</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0947531111645338</v>
+        <v>0.0947531111645335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0191488053021978</v>
+        <v>0.0191488053021976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17035741702687</v>
+        <v>0.170357417026869</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0175119326214763</v>
+        <v>0.0175119326214762</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0577422545335322</v>
+        <v>-0.0577422545335324</v>
       </c>
       <c r="D6" t="n">
         <v>0.0927661197764848</v>
@@ -504,10 +504,10 @@
         <v>0.103853982432025</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00231517261693417</v>
+        <v>-0.00231517261693412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210023137480984</v>
+        <v>0.210023137480985</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456890966545245</v>
+        <v>0.0456890966545247</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0503919462261999</v>
+        <v>-0.0503919462261996</v>
       </c>
       <c r="D8" t="n">
         <v>0.141770139535249</v>
@@ -535,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0834478409431804</v>
+        <v>0.0834478409431803</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000972477118733064</v>
+        <v>-0.000972477118733037</v>
       </c>
       <c r="D9" t="n">
         <v>0.167868159005094</v>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0490455807248948</v>
+        <v>0.0490455807248947</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0594078178313192</v>
+        <v>-0.0594078178313194</v>
       </c>
       <c r="D10" t="n">
         <v>0.157498979281109</v>
@@ -572,10 +572,10 @@
         <v>0.0101133748194984</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0428318682783555</v>
+        <v>-0.0428318682783557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0630586179173524</v>
+        <v>0.0630586179173526</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00777904174477427</v>
+        <v>0.00777904174477409</v>
       </c>
       <c r="C12" t="n">
         <v>-0.0365787724650717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0521368559546202</v>
+        <v>0.0521368559546199</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0345677812512016</v>
+        <v>0.027657737928523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00955330665890686</v>
+        <v>0.00393672748029645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0595822558434964</v>
+        <v>0.0513787483767496</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675876450707566</v>
+        <v>0.0537545332660761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333189915956314</v>
+        <v>0.0208975824207113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101856298545882</v>
+        <v>0.0866114841114409</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0391366742932622</v>
+        <v>0.0484519454118784</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.042578009691438</v>
+        <v>-0.0311976696309093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120851358277962</v>
+        <v>0.128101560454666</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0947531111645335</v>
+        <v>0.0871006762458434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0191488053021976</v>
+        <v>0.0139036353963154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170357417026869</v>
+        <v>0.160297717095371</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0175119326214762</v>
+        <v>0.0173450096068929</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0577422545335324</v>
+        <v>-0.058688821276682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0927661197764848</v>
+        <v>0.0933788404904679</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.103853982432025</v>
+        <v>0.0996831072386706</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00231517261693412</v>
+        <v>-0.00856427756722054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210023137480985</v>
+        <v>0.207930492044562</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456890966545247</v>
+        <v>0.0283852722219771</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0503919462261996</v>
+        <v>-0.0667645085984285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141770139535249</v>
+        <v>0.123535053042383</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0834478409431803</v>
+        <v>0.0534873354293704</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000972477118733037</v>
+        <v>-0.0253330284234113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167868159005094</v>
+        <v>0.132307699282152</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0490455807248947</v>
+        <v>0.0535469667124348</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0594078178313194</v>
+        <v>-0.0550456393798702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157498979281109</v>
+        <v>0.16213957280474</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0101133748194984</v>
+        <v>0.00806816490614442</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0428318682783557</v>
+        <v>-0.0449560745181978</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0630586179173526</v>
+        <v>0.0610924043304867</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00777904174477409</v>
+        <v>0.000561717691077912</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0365787724650717</v>
+        <v>-0.0410132178650919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0521368559546199</v>
+        <v>0.0421366532472477</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
